--- a/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
+++ b/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
@@ -1,27 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.3.3-us-wipF\InputData\web-app\OCCF\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="23955" windowHeight="11325"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="OCCF-DpLOCU" sheetId="2" r:id="rId2"/>
-    <sheet name="OCCF-DpSOCU" sheetId="3" r:id="rId3"/>
+    <sheet name="OCCF-DpMOCU" sheetId="4" r:id="rId3"/>
+    <sheet name="OCCF-DpSOCU" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Source:</t>
   </si>
@@ -65,25 +61,55 @@
     <t>One Small Output Currency Unit</t>
   </si>
   <si>
-    <t>none needed for U.S. model</t>
-  </si>
-  <si>
-    <t>billion 2012 dollars</t>
-  </si>
-  <si>
-    <t>2012 dollars</t>
-  </si>
-  <si>
     <t>OCCF Dollars per Large Output Currency Unit</t>
   </si>
   <si>
     <t>OCCF Dollars per Small Output Currency Unit</t>
   </si>
+  <si>
+    <t>billion 2018 dollars</t>
+  </si>
+  <si>
+    <t>2018 dollars</t>
+  </si>
+  <si>
+    <t>See cpi.xlsx</t>
+  </si>
+  <si>
+    <t>which in this case is "2012 dollars per 2018 dollar."</t>
+  </si>
+  <si>
+    <t>2012 dollars are worth more than 2018 dollars, so we need a</t>
+  </si>
+  <si>
+    <t>value less than 1 in this variable.</t>
+  </si>
+  <si>
+    <t>2018 dollars per 2012 dollar</t>
+  </si>
+  <si>
+    <t>This is why we multiply, not divide, by the conversion</t>
+  </si>
+  <si>
+    <t>factor above.</t>
+  </si>
+  <si>
+    <t>Medium Output Currency Unit</t>
+  </si>
+  <si>
+    <t>million 2018 dollars</t>
+  </si>
+  <si>
+    <t>OCCF Dollars per Medium Output Currency Unit</t>
+  </si>
+  <si>
+    <t>Recall, this variable is "dollars per large/medium/small currency output unit"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -138,6 +164,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -198,7 +225,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,7 +260,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -442,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,82 +480,137 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>16</v>
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.9143273584567535</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -561,8 +643,8 @@
         <v>8</v>
       </c>
       <c r="B2" s="3">
-        <f>10^9</f>
-        <v>1000000000</v>
+        <f>10^9*About!$A$26</f>
+        <v>914327358.45675349</v>
       </c>
     </row>
   </sheetData>
@@ -593,8 +675,42 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="8">
+        <f>10^6*About!$A$26</f>
+        <v>914327.35845675354</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B2" s="7">
-        <v>1</v>
+        <f>1*About!A26</f>
+        <v>0.9143273584567535</v>
       </c>
     </row>
   </sheetData>
@@ -855,13 +971,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E3DB9E9-7E5E-439D-ACB8-5987549C6444}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF2806A1-6745-49C6-B2ED-E2AD30734EC2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1623B532-702C-43DE-A06F-45E04A3E0120}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D1E47CE-7FF8-41C0-9A62-3DDD9BF31744}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{546EB661-F32B-4DB3-958F-E54E42E7FA45}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8916BED6-C418-4D2C-92B1-9B25D4D2165C}"/>
 </file>
--- a/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
+++ b/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-develop\InputData\web-app\OCCF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_83805BC7E8E24D732DCF0CC861954D85F9C6248B" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="23955" windowHeight="11325"/>
+    <workbookView xWindow="12720" yWindow="2310" windowWidth="15645" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,15 @@
     <sheet name="OCCF-DpMOCU" sheetId="4" r:id="rId3"/>
     <sheet name="OCCF-DpSOCU" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -109,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -225,7 +239,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,9 +272,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,6 +324,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -468,10 +516,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -552,7 +602,6 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>25</v>
@@ -593,22 +642,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>24</v>
       </c>
@@ -620,7 +669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -653,7 +702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -686,7 +735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -719,6 +768,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -952,32 +1019,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF2806A1-6745-49C6-B2ED-E2AD30734EC2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8916BED6-C418-4D2C-92B1-9B25D4D2165C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D1E47CE-7FF8-41C0-9A62-3DDD9BF31744}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D1E47CE-7FF8-41C0-9A62-3DDD9BF31744}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8916BED6-C418-4D2C-92B1-9B25D4D2165C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF2806A1-6745-49C6-B2ED-E2AD30734EC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
+++ b/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-develop\InputData\web-app\OCCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-web\InputData\web-app\OCCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_83805BC7E8E24D732DCF0CC861954D85F9C6248B" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_83805BC7E8E24D732DCF0CC861954D85F9C6248B" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9301B022-3D3C-4C18-946F-9CB2B8B1E35A}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="2310" windowWidth="15645" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,14 @@
     <sheet name="OCCF-DpMOCU" sheetId="4" r:id="rId3"/>
     <sheet name="OCCF-DpSOCU" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Source:</t>
   </si>
@@ -118,6 +120,12 @@
   </si>
   <si>
     <t>Recall, this variable is "dollars per large/medium/small currency output unit"</t>
+  </si>
+  <si>
+    <t>USD converted to HKD</t>
+  </si>
+  <si>
+    <t>this number was used</t>
   </si>
 </sst>
 </file>
@@ -167,11 +175,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -517,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,10 +599,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -603,10 +610,10 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="5"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -614,10 +621,10 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="5"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -657,9 +664,26 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>7.8285</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>A26*A35</f>
+        <v>7.1578117256786946</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -675,7 +699,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -683,7 +709,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -691,9 +717,9 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3">
-        <f>10^9*About!$A$26</f>
-        <v>914327358.45675349</v>
+      <c r="B2" s="7">
+        <f>10^9*About!$A$36</f>
+        <v>7157811725.6786947</v>
       </c>
     </row>
   </sheetData>
@@ -708,7 +734,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -716,7 +744,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -724,9 +752,9 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8">
-        <f>10^6*About!$A$26</f>
-        <v>914327.35845675354</v>
+      <c r="B2" s="7">
+        <f>10^6*About!$A$36</f>
+        <v>7157811.7256786944</v>
       </c>
     </row>
   </sheetData>
@@ -741,7 +769,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -749,7 +779,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -757,9 +787,9 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7">
-        <f>1*About!A26</f>
-        <v>0.9143273584567535</v>
+      <c r="B2" s="6">
+        <f>1*About!A36</f>
+        <v>7.1578117256786946</v>
       </c>
     </row>
   </sheetData>
@@ -768,21 +798,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1020,19 +1050,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D1E47CE-7FF8-41C0-9A62-3DDD9BF31744}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8916BED6-C418-4D2C-92B1-9B25D4D2165C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D1E47CE-7FF8-41C0-9A62-3DDD9BF31744}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
+++ b/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-web\InputData\web-app\OCCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-hongkong\InputData\web-app\OCCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_83805BC7E8E24D732DCF0CC861954D85F9C6248B" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9301B022-3D3C-4C18-946F-9CB2B8B1E35A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="OCCF-DpMOCU" sheetId="4" r:id="rId3"/>
     <sheet name="OCCF-DpSOCU" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -122,16 +121,16 @@
     <t>Recall, this variable is "dollars per large/medium/small currency output unit"</t>
   </si>
   <si>
-    <t>USD converted to HKD</t>
-  </si>
-  <si>
     <t>this number was used</t>
   </si>
+  <si>
+    <t>HKD converted to USD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,23 +278,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -331,23 +313,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -523,11 +488,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,19 +636,19 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>7.8285</v>
+        <v>0.12773839177364757</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>A26*A35</f>
-        <v>7.1578117256786946</v>
+        <v>0.11679470632391308</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -693,13 +658,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -719,7 +684,7 @@
       </c>
       <c r="B2" s="7">
         <f>10^9*About!$A$36</f>
-        <v>7157811725.6786947</v>
+        <v>116794706.32391308</v>
       </c>
     </row>
   </sheetData>
@@ -728,7 +693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -754,7 +719,7 @@
       </c>
       <c r="B2" s="7">
         <f>10^6*About!$A$36</f>
-        <v>7157811.7256786944</v>
+        <v>116794.70632391308</v>
       </c>
     </row>
   </sheetData>
@@ -763,7 +728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -789,7 +754,7 @@
       </c>
       <c r="B2" s="6">
         <f>1*About!A36</f>
-        <v>7.1578117256786946</v>
+        <v>0.11679470632391308</v>
       </c>
     </row>
   </sheetData>
@@ -798,21 +763,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1050,19 +1015,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D1E47CE-7FF8-41C0-9A62-3DDD9BF31744}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8916BED6-C418-4D2C-92B1-9B25D4D2165C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D1E47CE-7FF8-41C0-9A62-3DDD9BF31744}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
